--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1329.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1329.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.073815722455703</v>
+        <v>0.9835058450698853</v>
       </c>
       <c r="B1">
-        <v>2.573369272584691</v>
+        <v>1.978021025657654</v>
       </c>
       <c r="C1">
-        <v>4.949903039470254</v>
+        <v>8.690386772155762</v>
       </c>
       <c r="D1">
-        <v>2.301613242317854</v>
+        <v>2.802839517593384</v>
       </c>
       <c r="E1">
-        <v>1.217192147280411</v>
+        <v>1.426483392715454</v>
       </c>
     </row>
   </sheetData>
